--- a/EmiMollova/Test Cases Bills Homework/Test Case Bills004.xlsx
+++ b/EmiMollova/Test Cases Bills Homework/Test Case Bills004.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skillo-QA\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\skillotest\EmiMollova\Test Cases Bills Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -61,27 +61,33 @@
     <t>Komarcheta11</t>
   </si>
   <si>
-    <t>Bills04</t>
-  </si>
-  <si>
-    <t>the user confirms a transaction by clicking OK button, a confirmation message appears</t>
-  </si>
-  <si>
-    <t>username: testuser and password: TestUser; valid credit card</t>
-  </si>
-  <si>
-    <t>1. The user clicks OK button</t>
+    <t>the user Creates a transaction</t>
+  </si>
+  <si>
+    <t>the user initiates transaction, a confirmation window appears</t>
+  </si>
+  <si>
+    <t>a confirmation window with OK and Cancel buttons appears</t>
   </si>
   <si>
     <t>Documentation of Create New Registration will be delivered later
 Access to http://www.onlinebillsExercise.com is ensured
-The user is already iniciated a transaction&amp; entered the confirmation window</t>
-  </si>
-  <si>
-    <t>Successful transaction confirmation by clicking OK button</t>
-  </si>
-  <si>
-    <t>A green colored message: ““The transaction is completed” appears</t>
+The user already is redirected to the Home page</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>2. The user clicks CREATE transaction button</t>
+  </si>
+  <si>
+    <t>Bills004</t>
+  </si>
+  <si>
+    <t>username: testuser and password: TestUser1; already registered valid credit card</t>
+  </si>
+  <si>
+    <t>1. The user initiates a transaction with a random value</t>
   </si>
 </sst>
 </file>
@@ -542,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -605,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -613,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -621,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>43605</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -648,15 +654,19 @@
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
